--- a/public/excel/warranty.xlsx
+++ b/public/excel/warranty.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1305">
   <si>
     <t>رقم</t>
   </si>
@@ -3155,9 +3155,6 @@
   </si>
   <si>
     <t>قطاع حكومي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قطاع حكومي </t>
   </si>
   <si>
     <t>قطاع خاص</t>
@@ -4446,10 +4443,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X257"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -4555,7 +4552,7 @@
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="11">
         <v>6020</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B3" s="11">
         <v>6020</v>
@@ -4681,7 +4678,7 @@
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>541</v>
@@ -4741,7 +4738,7 @@
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>541</v>
@@ -4801,7 +4798,7 @@
     </row>
     <row r="6" spans="1:24" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>541</v>
@@ -4861,7 +4858,7 @@
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>541</v>
@@ -4921,7 +4918,7 @@
     </row>
     <row r="8" spans="1:24" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>130</v>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>130</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>130</v>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="11" spans="1:24" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B11" s="11">
         <v>6020</v>
@@ -5159,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="T11" s="9">
         <v>43075</v>
@@ -5179,7 +5176,7 @@
     </row>
     <row r="12" spans="1:24" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B12" s="11">
         <v>6020</v>
@@ -5221,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="T12" s="9">
         <v>43075</v>
@@ -5241,7 +5238,7 @@
     </row>
     <row r="13" spans="1:24" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>130</v>
@@ -5269,7 +5266,7 @@
         <v>346</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>160</v>
@@ -5305,7 +5302,7 @@
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>130</v>
@@ -5331,7 +5328,7 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>160</v>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>714</v>
@@ -5393,13 +5390,13 @@
         <v>718</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>32</v>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>714</v>
@@ -5455,7 +5452,7 @@
         <v>721</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>9</v>
@@ -5491,7 +5488,7 @@
     </row>
     <row r="17" spans="1:24" ht="19.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>541</v>
@@ -5519,7 +5516,7 @@
         <v>637</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>144</v>
@@ -5553,7 +5550,7 @@
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>3</v>
@@ -5615,7 +5612,7 @@
     </row>
     <row r="19" spans="1:24" ht="19.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B19" s="11">
         <v>6020</v>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B20" s="11">
         <v>6020</v>
@@ -5711,7 +5708,7 @@
         <v>38</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>24</v>
@@ -5743,7 +5740,7 @@
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B21" s="11">
         <v>6020</v>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B22" s="11">
         <v>6020</v>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B24" s="11">
         <v>6020</v>
@@ -5995,7 +5992,7 @@
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B25" s="11">
         <v>6020</v>
@@ -6057,7 +6054,7 @@
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B26" s="11">
         <v>6020</v>
@@ -6089,7 +6086,7 @@
         <v>38</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>24</v>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B27" s="11">
         <v>6020</v>
@@ -6183,7 +6180,7 @@
     </row>
     <row r="28" spans="1:24" ht="19.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B28" s="11">
         <v>6020</v>
@@ -6243,7 +6240,7 @@
     </row>
     <row r="29" spans="1:24" ht="19.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B29" s="11">
         <v>6020</v>
@@ -6305,7 +6302,7 @@
     </row>
     <row r="30" spans="1:24" ht="19.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B30" s="11">
         <v>6020</v>
@@ -6369,7 +6366,7 @@
     </row>
     <row r="31" spans="1:24" ht="19.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>350</v>
@@ -6433,7 +6430,7 @@
     </row>
     <row r="32" spans="1:24" ht="19.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>350</v>
@@ -6491,7 +6488,7 @@
     </row>
     <row r="33" spans="1:24" ht="19.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B33" s="11">
         <v>6020</v>
@@ -6555,7 +6552,7 @@
     </row>
     <row r="34" spans="1:24" ht="19.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>28</v>
@@ -6581,7 +6578,7 @@
         <v>835</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>9</v>
@@ -6617,7 +6614,7 @@
     </row>
     <row r="35" spans="1:24" ht="19.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B35" s="11">
         <v>6020</v>
@@ -6641,7 +6638,7 @@
         <v>1009</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>9</v>
@@ -6675,7 +6672,7 @@
     </row>
     <row r="36" spans="1:24" ht="19.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B36" s="1">
         <v>5140</v>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="37" spans="1:24" ht="19.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>541</v>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="38" spans="1:24" ht="19.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>28</v>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="39" spans="1:24" ht="19.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>28</v>
@@ -6925,7 +6922,7 @@
     </row>
     <row r="40" spans="1:24" ht="19.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>28</v>
@@ -6989,7 +6986,7 @@
     </row>
     <row r="41" spans="1:24" ht="19.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B41" s="11">
         <v>6020</v>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="42" spans="1:24" ht="19.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B42" s="11">
         <v>6020</v>
@@ -7237,7 +7234,7 @@
     </row>
     <row r="45" spans="1:24" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>768</v>
@@ -7263,13 +7260,13 @@
         <v>911</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>24</v>
@@ -7299,7 +7296,7 @@
     </row>
     <row r="46" spans="1:24" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>768</v>
@@ -7325,13 +7322,13 @@
         <v>911</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>24</v>
@@ -7361,7 +7358,7 @@
     </row>
     <row r="47" spans="1:24" ht="19.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>130</v>
@@ -7389,7 +7386,7 @@
         <v>911</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>9</v>
@@ -7425,7 +7422,7 @@
     </row>
     <row r="48" spans="1:24" ht="19.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B48" s="11">
         <v>6020</v>
@@ -7451,7 +7448,7 @@
         <v>264</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N48" s="13" t="s">
         <v>38</v>
@@ -7487,7 +7484,7 @@
     </row>
     <row r="49" spans="1:24" ht="19.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B49" s="1">
         <v>2010</v>
@@ -7515,7 +7512,7 @@
         <v>623</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>38</v>
@@ -7553,7 +7550,7 @@
     </row>
     <row r="50" spans="1:24" ht="19.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>768</v>
@@ -7577,7 +7574,7 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>254</v>
@@ -7615,7 +7612,7 @@
     </row>
     <row r="51" spans="1:24" ht="19.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>708</v>
@@ -7679,7 +7676,7 @@
     </row>
     <row r="52" spans="1:24" ht="19.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>708</v>
@@ -7743,7 +7740,7 @@
     </row>
     <row r="53" spans="1:24" ht="19.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>350</v>
@@ -7805,7 +7802,7 @@
     </row>
     <row r="54" spans="1:24" ht="19.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>28</v>
@@ -7867,7 +7864,7 @@
     </row>
     <row r="55" spans="1:24" ht="19.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>28</v>
@@ -7929,7 +7926,7 @@
     </row>
     <row r="56" spans="1:24" ht="19.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>28</v>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="57" spans="1:24" ht="19.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>28</v>
@@ -8053,7 +8050,7 @@
     </row>
     <row r="58" spans="1:24" ht="19.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>28</v>
@@ -8113,7 +8110,7 @@
     </row>
     <row r="59" spans="1:24" ht="19.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>28</v>
@@ -8173,7 +8170,7 @@
     </row>
     <row r="60" spans="1:24" ht="19.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>28</v>
@@ -8233,7 +8230,7 @@
     </row>
     <row r="61" spans="1:24" ht="19.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>28</v>
@@ -8293,7 +8290,7 @@
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>28</v>
@@ -8355,7 +8352,7 @@
     </row>
     <row r="63" spans="1:24" ht="19.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>28</v>
@@ -8417,7 +8414,7 @@
     </row>
     <row r="64" spans="1:24" ht="19.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>28</v>
@@ -8479,7 +8476,7 @@
     </row>
     <row r="65" spans="1:24" ht="19.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>28</v>
@@ -8541,7 +8538,7 @@
     </row>
     <row r="66" spans="1:24" ht="19.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>28</v>
@@ -8603,7 +8600,7 @@
     </row>
     <row r="67" spans="1:24" ht="19.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>28</v>
@@ -8663,7 +8660,7 @@
     </row>
     <row r="68" spans="1:24" ht="19.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>28</v>
@@ -8725,7 +8722,7 @@
     </row>
     <row r="69" spans="1:24" ht="19.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>28</v>
@@ -8785,7 +8782,7 @@
     </row>
     <row r="70" spans="1:24" ht="19.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>28</v>
@@ -8845,7 +8842,7 @@
     </row>
     <row r="71" spans="1:24" ht="19.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>28</v>
@@ -8905,7 +8902,7 @@
     </row>
     <row r="72" spans="1:24" ht="19.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>28</v>
@@ -8965,7 +8962,7 @@
     </row>
     <row r="73" spans="1:24" ht="19.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>28</v>
@@ -9025,7 +9022,7 @@
     </row>
     <row r="74" spans="1:24" ht="19.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>28</v>
@@ -9085,7 +9082,7 @@
     </row>
     <row r="75" spans="1:24" ht="19.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>28</v>
@@ -9143,7 +9140,7 @@
     </row>
     <row r="76" spans="1:24" ht="19.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>28</v>
@@ -9205,7 +9202,7 @@
     </row>
     <row r="77" spans="1:24" ht="19.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>28</v>
@@ -9267,7 +9264,7 @@
     </row>
     <row r="78" spans="1:24" ht="19.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>28</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="79" spans="1:24" ht="19.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>28</v>
@@ -9391,7 +9388,7 @@
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>28</v>
@@ -9453,7 +9450,7 @@
     </row>
     <row r="81" spans="1:24" ht="19.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>28</v>
@@ -9515,7 +9512,7 @@
     </row>
     <row r="82" spans="1:24" ht="19.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>130</v>
@@ -9541,7 +9538,7 @@
         <v>593</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>160</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="83" spans="1:24" ht="19.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>130</v>
@@ -9597,7 +9594,7 @@
         <v>164</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>160</v>
@@ -9631,7 +9628,7 @@
     </row>
     <row r="84" spans="1:24" ht="19.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B84" s="11">
         <v>6020</v>
@@ -9693,7 +9690,7 @@
     </row>
     <row r="85" spans="1:24" ht="19.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>180</v>
@@ -9757,7 +9754,7 @@
     </row>
     <row r="86" spans="1:24" ht="19.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B86" s="11">
         <v>314</v>
@@ -9821,7 +9818,7 @@
     </row>
     <row r="87" spans="1:24" ht="19.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>905</v>
@@ -9885,7 +9882,7 @@
     </row>
     <row r="88" spans="1:24" ht="19.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>605</v>
@@ -9917,7 +9914,7 @@
         <v>612</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>38</v>
@@ -9955,7 +9952,7 @@
     </row>
     <row r="89" spans="1:24" ht="19.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>605</v>
@@ -9987,7 +9984,7 @@
         <v>618</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>38</v>
@@ -10025,7 +10022,7 @@
     </row>
     <row r="90" spans="1:24" ht="19.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>913</v>
@@ -10051,7 +10048,7 @@
         <v>414</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>38</v>
@@ -10087,7 +10084,7 @@
     </row>
     <row r="91" spans="1:24" ht="19.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>130</v>
@@ -10113,7 +10110,7 @@
         <v>151</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>152</v>
@@ -10151,7 +10148,7 @@
     </row>
     <row r="92" spans="1:24" ht="19.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>541</v>
@@ -10219,7 +10216,7 @@
     </row>
     <row r="93" spans="1:24" ht="19.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>350</v>
@@ -10241,7 +10238,7 @@
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N93" s="13" t="s">
         <v>38</v>
@@ -10275,7 +10272,7 @@
     </row>
     <row r="94" spans="1:24" ht="19.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B94" s="11">
         <v>6020</v>
@@ -10303,7 +10300,7 @@
         <v>939</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N94" s="13" t="s">
         <v>38</v>
@@ -10341,7 +10338,7 @@
     </row>
     <row r="95" spans="1:24" ht="19.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>942</v>
@@ -10369,7 +10366,7 @@
         <v>943</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>38</v>
@@ -10407,7 +10404,7 @@
     </row>
     <row r="96" spans="1:24" ht="19.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>541</v>
@@ -10473,7 +10470,7 @@
     </row>
     <row r="97" spans="1:24" ht="19.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>541</v>
@@ -10537,7 +10534,7 @@
     </row>
     <row r="98" spans="1:24" ht="19.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>541</v>
@@ -10603,7 +10600,7 @@
     </row>
     <row r="99" spans="1:24" ht="19.5" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B99" s="11">
         <v>2310</v>
@@ -10627,7 +10624,7 @@
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>38</v>
@@ -10663,7 +10660,7 @@
     </row>
     <row r="100" spans="1:24" ht="19.5" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B100" s="11">
         <v>6020</v>
@@ -10687,7 +10684,7 @@
         <v>484</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>160</v>
@@ -10723,7 +10720,7 @@
     </row>
     <row r="101" spans="1:24" ht="19.5" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>768</v>
@@ -10785,7 +10782,7 @@
     </row>
     <row r="102" spans="1:24" ht="19.5" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>350</v>
@@ -10809,7 +10806,7 @@
         <v>951</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>254</v>
@@ -10845,7 +10842,7 @@
     </row>
     <row r="103" spans="1:24" ht="19.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>350</v>
@@ -10873,7 +10870,7 @@
         <v>538</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>254</v>
@@ -10911,7 +10908,7 @@
     </row>
     <row r="104" spans="1:24" ht="19.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>350</v>
@@ -10935,7 +10932,7 @@
         <v>513</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>9</v>
@@ -10971,7 +10968,7 @@
     </row>
     <row r="105" spans="1:24" ht="19.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>28</v>
@@ -10995,7 +10992,7 @@
         <v>929</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>9</v>
@@ -11031,7 +11028,7 @@
     </row>
     <row r="106" spans="1:24" ht="19.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B106" s="11">
         <v>6020</v>
@@ -11055,7 +11052,7 @@
         <v>176</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>38</v>
@@ -11087,7 +11084,7 @@
     </row>
     <row r="107" spans="1:24" ht="19.5" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>350</v>
@@ -11109,7 +11106,7 @@
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>38</v>
@@ -11143,7 +11140,7 @@
     </row>
     <row r="108" spans="1:24" ht="19.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B108" s="11">
         <v>6020</v>
@@ -11167,7 +11164,7 @@
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>160</v>
@@ -11205,7 +11202,7 @@
     </row>
     <row r="109" spans="1:24" ht="19.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B109" s="11">
         <v>6020</v>
@@ -11265,7 +11262,7 @@
     </row>
     <row r="110" spans="1:24" ht="19.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B110" s="11">
         <v>6020</v>
@@ -11325,7 +11322,7 @@
     </row>
     <row r="111" spans="1:24" ht="19.5" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B111" s="11">
         <v>356</v>
@@ -11387,7 +11384,7 @@
     </row>
     <row r="112" spans="1:24" ht="19.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>350</v>
@@ -11411,7 +11408,7 @@
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N112" s="13" t="s">
         <v>38</v>
@@ -11449,7 +11446,7 @@
     </row>
     <row r="113" spans="1:24" ht="19.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>130</v>
@@ -11473,7 +11470,7 @@
         <v>590</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>9</v>
@@ -11505,7 +11502,7 @@
     </row>
     <row r="114" spans="1:24" ht="19.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B114" s="11">
         <v>6020</v>
@@ -11531,7 +11528,7 @@
         <v>832</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>9</v>
@@ -11567,7 +11564,7 @@
     </row>
     <row r="115" spans="1:24" ht="19.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B115" s="1">
         <v>6020</v>
@@ -11591,7 +11588,7 @@
         <v>425</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>9</v>
@@ -11623,7 +11620,7 @@
     </row>
     <row r="116" spans="1:24" ht="19.5" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>180</v>
@@ -11647,7 +11644,7 @@
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>254</v>
@@ -11685,7 +11682,7 @@
     </row>
     <row r="117" spans="1:24" ht="19.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>350</v>
@@ -11711,7 +11708,7 @@
         <v>748</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>38</v>
@@ -11749,7 +11746,7 @@
     </row>
     <row r="118" spans="1:24" ht="19.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B118" s="11">
         <v>6020</v>
@@ -11809,7 +11806,7 @@
     </row>
     <row r="119" spans="1:24" ht="19.5" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B119" s="11">
         <v>6020</v>
@@ -11871,7 +11868,7 @@
     </row>
     <row r="120" spans="1:24" ht="19.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B120" s="11">
         <v>6020</v>
@@ -11933,7 +11930,7 @@
     </row>
     <row r="121" spans="1:24" ht="19.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B121" s="11">
         <v>6020</v>
@@ -11995,7 +11992,7 @@
     </row>
     <row r="122" spans="1:24" ht="19.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B122" s="11">
         <v>6020</v>
@@ -12057,7 +12054,7 @@
     </row>
     <row r="123" spans="1:24" ht="19.5" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B123" s="11">
         <v>6020</v>
@@ -12119,7 +12116,7 @@
     </row>
     <row r="124" spans="1:24" ht="19.5" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B124" s="11">
         <v>6020</v>
@@ -12181,7 +12178,7 @@
     </row>
     <row r="125" spans="1:24" ht="19.5" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B125" s="11">
         <v>6020</v>
@@ -12245,7 +12242,7 @@
     </row>
     <row r="126" spans="1:24" ht="19.5" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B126" s="11">
         <v>6020</v>
@@ -12311,7 +12308,7 @@
     </row>
     <row r="127" spans="1:24" ht="19.5" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B127" s="11">
         <v>6020</v>
@@ -12377,7 +12374,7 @@
     </row>
     <row r="128" spans="1:24" ht="19.5" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B128" s="11">
         <v>6020</v>
@@ -12441,7 +12438,7 @@
     </row>
     <row r="129" spans="1:24" ht="19.5" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B129" s="11">
         <v>6020</v>
@@ -12503,7 +12500,7 @@
     </row>
     <row r="130" spans="1:24" ht="19.5" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B130" s="11">
         <v>6020</v>
@@ -12567,7 +12564,7 @@
     </row>
     <row r="131" spans="1:24" ht="19.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>350</v>
@@ -12584,7 +12581,7 @@
         <v>352</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -12631,7 +12628,7 @@
     </row>
     <row r="132" spans="1:24" ht="19.5" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>350</v>
@@ -12695,7 +12692,7 @@
     </row>
     <row r="133" spans="1:24" ht="19.5" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>350</v>
@@ -12761,7 +12758,7 @@
     </row>
     <row r="134" spans="1:24" ht="19.5" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>350</v>
@@ -12827,7 +12824,7 @@
     </row>
     <row r="135" spans="1:24" ht="19.5" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>350</v>
@@ -12891,7 +12888,7 @@
     </row>
     <row r="136" spans="1:24" ht="19.5" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B136" s="11">
         <v>6020</v>
@@ -12953,7 +12950,7 @@
     </row>
     <row r="137" spans="1:24" ht="19.5" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B137" s="11">
         <v>6020</v>
@@ -12979,7 +12976,7 @@
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>160</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="138" spans="1:24" ht="19.5" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B138" s="11">
         <v>314</v>
@@ -13077,7 +13074,7 @@
     </row>
     <row r="139" spans="1:24" ht="19.5" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>168</v>
@@ -13143,7 +13140,7 @@
     </row>
     <row r="140" spans="1:24" ht="19.5" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B140" s="11">
         <v>6020</v>
@@ -13169,7 +13166,7 @@
         <v>700</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>160</v>
@@ -13203,7 +13200,7 @@
     </row>
     <row r="141" spans="1:24" ht="19.5" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B141" s="11">
         <v>6020</v>
@@ -13229,7 +13226,7 @@
         <v>556</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>160</v>
@@ -13265,7 +13262,7 @@
     </row>
     <row r="142" spans="1:24" ht="19.5" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B142" s="11">
         <v>354</v>
@@ -13291,7 +13288,7 @@
         <v>860</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>9</v>
@@ -13327,7 +13324,7 @@
     </row>
     <row r="143" spans="1:24" ht="19.5" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B143" s="11">
         <v>354</v>
@@ -13353,7 +13350,7 @@
         <v>860</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>9</v>
@@ -13389,7 +13386,7 @@
     </row>
     <row r="144" spans="1:24" ht="19.5" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>350</v>
@@ -13415,7 +13412,7 @@
         <v>530</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>160</v>
@@ -13451,7 +13448,7 @@
     </row>
     <row r="145" spans="1:24" ht="19.5" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B145" s="11">
         <v>6020</v>
@@ -13477,7 +13474,7 @@
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N145" s="1" t="s">
         <v>160</v>
@@ -13513,7 +13510,7 @@
     </row>
     <row r="146" spans="1:24" ht="19.5" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>130</v>
@@ -13539,7 +13536,7 @@
         <v>159</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>160</v>
@@ -13573,7 +13570,7 @@
     </row>
     <row r="147" spans="1:24" ht="19.5" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B147" s="1">
         <v>6020</v>
@@ -13635,7 +13632,7 @@
     </row>
     <row r="148" spans="1:24" ht="19.5" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B148" s="11">
         <v>6020</v>
@@ -13697,7 +13694,7 @@
     </row>
     <row r="149" spans="1:24" ht="19.5" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B149" s="11">
         <v>6020</v>
@@ -13761,7 +13758,7 @@
     </row>
     <row r="150" spans="1:24" ht="19.5" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B150" s="11">
         <v>6020</v>
@@ -13821,7 +13818,7 @@
     </row>
     <row r="151" spans="1:24" ht="19.5" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>350</v>
@@ -13849,7 +13846,7 @@
         <v>678</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>254</v>
@@ -13883,7 +13880,7 @@
     </row>
     <row r="152" spans="1:24" ht="19.5" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B152" s="11">
         <v>6020</v>
@@ -13947,7 +13944,7 @@
     </row>
     <row r="153" spans="1:24" ht="19.5" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>350</v>
@@ -13971,7 +13968,7 @@
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>9</v>
@@ -14009,7 +14006,7 @@
     </row>
     <row r="154" spans="1:24" ht="19.5" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>180</v>
@@ -14033,7 +14030,7 @@
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>144</v>
@@ -14069,7 +14066,7 @@
     </row>
     <row r="155" spans="1:24" ht="19.5" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>130</v>
@@ -14093,7 +14090,7 @@
         <v>143</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>144</v>
@@ -14127,7 +14124,7 @@
     </row>
     <row r="156" spans="1:24" ht="19.5" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B156" s="1">
         <v>6020</v>
@@ -14191,7 +14188,7 @@
     </row>
     <row r="157" spans="1:24" ht="19.5" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>180</v>
@@ -14251,7 +14248,7 @@
     </row>
     <row r="158" spans="1:24" ht="19.5" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B158" s="11">
         <v>6020</v>
@@ -14276,10 +14273,10 @@
         <v>896</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>254</v>
@@ -14315,7 +14312,7 @@
     </row>
     <row r="159" spans="1:24" ht="19.5" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>216</v>
@@ -14375,7 +14372,7 @@
     </row>
     <row r="160" spans="1:24" ht="19.5" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B160" s="11">
         <v>6020</v>
@@ -14399,7 +14396,7 @@
       </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N160" s="13" t="s">
         <v>38</v>
@@ -14437,7 +14434,7 @@
     </row>
     <row r="161" spans="1:24" ht="19.5" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>350</v>
@@ -14463,7 +14460,7 @@
         <v>725</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>160</v>
@@ -14499,7 +14496,7 @@
     </row>
     <row r="162" spans="1:24" ht="19.5" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>605</v>
@@ -14563,7 +14560,7 @@
     </row>
     <row r="163" spans="1:24" ht="19.5" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>350</v>
@@ -14627,7 +14624,7 @@
     </row>
     <row r="164" spans="1:24" ht="19.5" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>350</v>
@@ -14691,7 +14688,7 @@
     </row>
     <row r="165" spans="1:24" ht="19.5" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>180</v>
@@ -14723,7 +14720,7 @@
         <v>144</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P165" s="1" t="s">
         <v>24</v>
@@ -14753,7 +14750,7 @@
     </row>
     <row r="166" spans="1:24" ht="19.5" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>216</v>
@@ -14813,7 +14810,7 @@
     </row>
     <row r="167" spans="1:24" ht="19.5" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>216</v>
@@ -14871,7 +14868,7 @@
     </row>
     <row r="168" spans="1:24" ht="19.5" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>216</v>
@@ -14931,7 +14928,7 @@
     </row>
     <row r="169" spans="1:24" ht="19.5" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>180</v>
@@ -14987,7 +14984,7 @@
     </row>
     <row r="170" spans="1:24" ht="19.5" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>180</v>
@@ -15043,7 +15040,7 @@
     </row>
     <row r="171" spans="1:24" ht="19.5" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B171" s="11">
         <v>6020</v>
@@ -15107,7 +15104,7 @@
     </row>
     <row r="172" spans="1:24" ht="19.5" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B172" s="11">
         <v>6020</v>
@@ -15171,7 +15168,7 @@
     </row>
     <row r="173" spans="1:24" ht="19.5" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>628</v>
@@ -15233,7 +15230,7 @@
     </row>
     <row r="174" spans="1:24" ht="19.5" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>986</v>
@@ -15301,7 +15298,7 @@
     </row>
     <row r="175" spans="1:24" ht="19.5" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>216</v>
@@ -15327,7 +15324,7 @@
         <v>224</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>144</v>
@@ -15363,7 +15360,7 @@
     </row>
     <row r="176" spans="1:24" ht="19.5" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>216</v>
@@ -15389,7 +15386,7 @@
         <v>228</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>144</v>
@@ -15425,7 +15422,7 @@
     </row>
     <row r="177" spans="1:24" ht="19.5" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>216</v>
@@ -15451,7 +15448,7 @@
         <v>230</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>144</v>
@@ -15487,7 +15484,7 @@
     </row>
     <row r="178" spans="1:24" ht="19.5" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>216</v>
@@ -15513,7 +15510,7 @@
         <v>232</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>144</v>
@@ -15549,7 +15546,7 @@
     </row>
     <row r="179" spans="1:24" ht="19.5" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>216</v>
@@ -15573,7 +15570,7 @@
         <v>236</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>144</v>
@@ -15609,7 +15606,7 @@
     </row>
     <row r="180" spans="1:24" ht="19.5" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>350</v>
@@ -15665,7 +15662,7 @@
     </row>
     <row r="181" spans="1:24" ht="19.5" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>350</v>
@@ -15725,7 +15722,7 @@
     </row>
     <row r="182" spans="1:24" ht="19.5" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B182" s="11">
         <v>6020</v>
@@ -15789,7 +15786,7 @@
     </row>
     <row r="183" spans="1:24" ht="19.5" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B183" s="11">
         <v>6020</v>
@@ -15813,7 +15810,7 @@
         <v>956</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N183" s="13" t="s">
         <v>38</v>
@@ -15851,7 +15848,7 @@
     </row>
     <row r="184" spans="1:24" ht="19.5" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B184" s="11">
         <v>6020</v>
@@ -15915,7 +15912,7 @@
     </row>
     <row r="185" spans="1:24" ht="19.5" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B185" s="11">
         <v>6020</v>
@@ -15975,7 +15972,7 @@
     </row>
     <row r="186" spans="1:24" ht="19.5" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>350</v>
@@ -16035,7 +16032,7 @@
     </row>
     <row r="187" spans="1:24" ht="19.5" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>28</v>
@@ -16095,7 +16092,7 @@
     </row>
     <row r="188" spans="1:24" ht="19.5" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>28</v>
@@ -16155,7 +16152,7 @@
     </row>
     <row r="189" spans="1:24" ht="19.5" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>28</v>
@@ -16217,7 +16214,7 @@
     </row>
     <row r="190" spans="1:24" ht="19.5" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>28</v>
@@ -16391,7 +16388,7 @@
     </row>
     <row r="193" spans="1:24" ht="19.5" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B193" s="11" t="s">
         <v>28</v>
@@ -16447,7 +16444,7 @@
     </row>
     <row r="194" spans="1:24" ht="19.5" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>28</v>
@@ -16503,7 +16500,7 @@
     </row>
     <row r="195" spans="1:24" ht="19.5" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>28</v>
@@ -16559,7 +16556,7 @@
     </row>
     <row r="196" spans="1:24" ht="19.5" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B196" s="11">
         <v>5731</v>
@@ -16615,7 +16612,7 @@
     </row>
     <row r="197" spans="1:24" ht="19.5" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>28</v>
@@ -16671,7 +16668,7 @@
     </row>
     <row r="198" spans="1:24" ht="19.5" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B198" s="11">
         <v>6020</v>
@@ -16727,7 +16724,7 @@
     </row>
     <row r="199" spans="1:24" ht="19.5" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B199" s="11">
         <v>6020</v>
@@ -16787,7 +16784,7 @@
     </row>
     <row r="200" spans="1:24" ht="19.5" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>28</v>
@@ -16847,7 +16844,7 @@
     </row>
     <row r="201" spans="1:24" ht="19.5" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B201" s="11">
         <v>6020</v>
@@ -16903,7 +16900,7 @@
     </row>
     <row r="202" spans="1:24" ht="19.5" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>28</v>
@@ -16955,7 +16952,7 @@
     </row>
     <row r="203" spans="1:24" ht="19.5" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B203" s="11">
         <v>5620</v>
@@ -17013,7 +17010,7 @@
     </row>
     <row r="204" spans="1:24" ht="19.5" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B204" s="11">
         <v>6020</v>
@@ -17069,7 +17066,7 @@
     </row>
     <row r="205" spans="1:24" ht="19.5" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>168</v>
@@ -17125,7 +17122,7 @@
     </row>
     <row r="206" spans="1:24" ht="19.5" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>28</v>
@@ -17183,7 +17180,7 @@
     </row>
     <row r="207" spans="1:24" ht="19.5" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>28</v>
@@ -17241,7 +17238,7 @@
     </row>
     <row r="208" spans="1:24" ht="19.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>216</v>
@@ -17295,7 +17292,7 @@
     </row>
     <row r="209" spans="1:24" ht="19.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B209" s="11">
         <v>6020</v>
@@ -17325,7 +17322,7 @@
         <v>947</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N209" s="1" t="s">
         <v>160</v>
@@ -17363,7 +17360,7 @@
     </row>
     <row r="210" spans="1:24" ht="19.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>168</v>
@@ -17389,7 +17386,7 @@
         <v>538</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N210" s="1" t="s">
         <v>160</v>
@@ -17423,7 +17420,7 @@
     </row>
     <row r="211" spans="1:24" ht="19.5" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B211" s="11">
         <v>6020</v>
@@ -17449,7 +17446,7 @@
         <v>665</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N211" s="1" t="s">
         <v>160</v>
@@ -17485,7 +17482,7 @@
     </row>
     <row r="212" spans="1:24" ht="19.5" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B212" s="1">
         <v>6020</v>
@@ -17545,7 +17542,7 @@
     </row>
     <row r="213" spans="1:24" ht="19.5" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B213" s="11">
         <v>6020</v>
@@ -17571,7 +17568,7 @@
         <v>513</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N213" s="1" t="s">
         <v>160</v>
@@ -17607,7 +17604,7 @@
     </row>
     <row r="214" spans="1:24" ht="19.5" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B214" s="11">
         <v>6020</v>
@@ -17673,7 +17670,7 @@
     </row>
     <row r="215" spans="1:24" ht="19.5" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>180</v>
@@ -17735,7 +17732,7 @@
     </row>
     <row r="216" spans="1:24" ht="19.5" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B216" s="11">
         <v>6020</v>
@@ -17761,7 +17758,7 @@
         <v>329</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N216" s="1" t="s">
         <v>160</v>
@@ -17797,7 +17794,7 @@
     </row>
     <row r="217" spans="1:24" ht="19.5" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B217" s="1">
         <v>6020</v>
@@ -17821,7 +17818,7 @@
         <v>637</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N217" s="1" t="s">
         <v>9</v>
@@ -17853,7 +17850,7 @@
     </row>
     <row r="218" spans="1:24" ht="19.5" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B218" s="11" t="s">
         <v>216</v>
@@ -17911,7 +17908,7 @@
     </row>
     <row r="219" spans="1:24" ht="19.5" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B219" s="11">
         <v>6020</v>
@@ -17973,7 +17970,7 @@
     </row>
     <row r="220" spans="1:24" ht="19.5" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B220" s="11">
         <v>6020</v>
@@ -18035,7 +18032,7 @@
     </row>
     <row r="221" spans="1:24" ht="19.5" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B221" s="11">
         <v>6020</v>
@@ -18095,7 +18092,7 @@
     </row>
     <row r="222" spans="1:24" ht="19.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B222" s="11">
         <v>6020</v>
@@ -18157,7 +18154,7 @@
     </row>
     <row r="223" spans="1:24" ht="19.5" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B223" s="11">
         <v>6020</v>
@@ -18221,7 +18218,7 @@
     </row>
     <row r="224" spans="1:24" ht="19.5" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B224" s="11">
         <v>6020</v>
@@ -18285,7 +18282,7 @@
     </row>
     <row r="225" spans="1:24" ht="19.5" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B225" s="11">
         <v>6020</v>
@@ -18311,7 +18308,7 @@
         <v>414</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N225" s="1" t="s">
         <v>160</v>
@@ -18345,7 +18342,7 @@
     </row>
     <row r="226" spans="1:24" ht="19.5" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B226" s="11">
         <v>6020</v>
@@ -18371,7 +18368,7 @@
         <v>392</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>160</v>
@@ -18405,7 +18402,7 @@
     </row>
     <row r="227" spans="1:24" ht="19.5" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B227" s="11">
         <v>6020</v>
@@ -18431,7 +18428,7 @@
         <v>392</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>160</v>
@@ -18465,7 +18462,7 @@
     </row>
     <row r="228" spans="1:24" ht="19.5" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B228" s="11">
         <v>6020</v>
@@ -18491,7 +18488,7 @@
         <v>513</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>160</v>
@@ -18553,7 +18550,7 @@
         <v>806</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>160</v>
@@ -18589,7 +18586,7 @@
     </row>
     <row r="230" spans="1:24" ht="19.5" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B230" s="11">
         <v>6020</v>
@@ -18615,7 +18612,7 @@
         <v>670</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N230" s="1" t="s">
         <v>160</v>
@@ -18651,7 +18648,7 @@
     </row>
     <row r="231" spans="1:24" ht="19.5" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B231" s="11">
         <v>6020</v>
@@ -18677,7 +18674,7 @@
         <v>466</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>160</v>
@@ -18711,7 +18708,7 @@
     </row>
     <row r="232" spans="1:24" ht="19.5" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B232" s="11">
         <v>6020</v>
@@ -18737,7 +18734,7 @@
         <v>414</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N232" s="1" t="s">
         <v>160</v>
@@ -18771,7 +18768,7 @@
     </row>
     <row r="233" spans="1:24" ht="19.5" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B233" s="11">
         <v>6020</v>
@@ -18795,7 +18792,7 @@
         <v>414</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N233" s="1" t="s">
         <v>160</v>
@@ -18829,7 +18826,7 @@
     </row>
     <row r="234" spans="1:24" ht="19.5" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B234" s="11">
         <v>6020</v>
@@ -18853,7 +18850,7 @@
         <v>392</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N234" s="1" t="s">
         <v>160</v>
@@ -18887,7 +18884,7 @@
     </row>
     <row r="235" spans="1:24" ht="19.5" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B235" s="11">
         <v>6020</v>
@@ -18911,7 +18908,7 @@
         <v>386</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>160</v>
@@ -18945,7 +18942,7 @@
     </row>
     <row r="236" spans="1:24" ht="19.5" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B236" s="11">
         <v>6020</v>
@@ -18969,7 +18966,7 @@
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>160</v>
@@ -19003,7 +19000,7 @@
     </row>
     <row r="237" spans="1:24" ht="19.5" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B237" s="11">
         <v>6020</v>
@@ -19029,7 +19026,7 @@
         <v>392</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N237" s="1" t="s">
         <v>160</v>
@@ -19063,7 +19060,7 @@
     </row>
     <row r="238" spans="1:24" ht="19.5" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B238" s="11">
         <v>6020</v>
@@ -19089,7 +19086,7 @@
         <v>466</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>160</v>
@@ -19127,7 +19124,7 @@
     </row>
     <row r="239" spans="1:24" ht="19.5" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B239" s="11">
         <v>6020</v>
@@ -19153,7 +19150,7 @@
         <v>466</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>160</v>
@@ -19187,7 +19184,7 @@
     </row>
     <row r="240" spans="1:24" ht="19.5" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B240" s="11">
         <v>6020</v>
@@ -19213,7 +19210,7 @@
         <v>461</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>160</v>
@@ -19247,7 +19244,7 @@
     </row>
     <row r="241" spans="1:24" ht="19.5" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B241" s="11">
         <v>6020</v>
@@ -19271,7 +19268,7 @@
         <v>386</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N241" s="1" t="s">
         <v>160</v>
@@ -19305,7 +19302,7 @@
     </row>
     <row r="242" spans="1:24" ht="19.5" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B242" s="11">
         <v>6020</v>
@@ -19333,7 +19330,7 @@
         <v>392</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>160</v>
@@ -19367,7 +19364,7 @@
     </row>
     <row r="243" spans="1:24" ht="19.5" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B243" s="1">
         <v>6020</v>
@@ -19429,7 +19426,7 @@
     </row>
     <row r="244" spans="1:24" ht="19.5" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B244" s="11">
         <v>6020</v>
@@ -19493,7 +19490,7 @@
     </row>
     <row r="245" spans="1:24" ht="19.5" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B245" s="11">
         <v>6020</v>
@@ -19551,7 +19548,7 @@
     </row>
     <row r="246" spans="1:24" ht="19.5" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B246" s="15">
         <v>6020</v>
@@ -19577,7 +19574,7 @@
         <v>790</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>9</v>
@@ -19613,7 +19610,7 @@
     </row>
     <row r="247" spans="1:24" ht="19.5" customHeight="1">
       <c r="A247" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B247" s="15">
         <v>6020</v>
@@ -19675,7 +19672,7 @@
     </row>
     <row r="248" spans="1:24" ht="19.5" customHeight="1">
       <c r="A248" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B248" s="15">
         <v>6020</v>
@@ -19739,7 +19736,7 @@
     </row>
     <row r="249" spans="1:24" ht="19.5" customHeight="1">
       <c r="A249" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B249" s="15">
         <v>6020</v>
@@ -19803,7 +19800,7 @@
     </row>
     <row r="250" spans="1:24" ht="19.5" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>350</v>
@@ -19867,7 +19864,7 @@
     </row>
     <row r="251" spans="1:24" ht="19.5" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B251" s="15" t="s">
         <v>28</v>
@@ -19893,7 +19890,7 @@
       </c>
       <c r="L251" s="13"/>
       <c r="M251" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N251" s="13" t="s">
         <v>38</v>
@@ -19931,7 +19928,7 @@
     </row>
     <row r="252" spans="1:24" ht="19.5" customHeight="1">
       <c r="A252" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B252" s="15" t="s">
         <v>28</v>
@@ -19995,7 +19992,7 @@
     </row>
     <row r="253" spans="1:24" ht="19.5" customHeight="1">
       <c r="A253" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B253" s="15" t="s">
         <v>28</v>
@@ -20059,7 +20056,7 @@
     </row>
     <row r="254" spans="1:24" ht="19.5" customHeight="1">
       <c r="A254" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>28</v>
@@ -20123,7 +20120,7 @@
     </row>
     <row r="255" spans="1:24" ht="19.5" customHeight="1">
       <c r="A255" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B255" s="15" t="s">
         <v>28</v>
@@ -20187,7 +20184,7 @@
     </row>
     <row r="256" spans="1:24" ht="19.5" customHeight="1">
       <c r="A256" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B256" s="15" t="s">
         <v>350</v>
@@ -20249,7 +20246,7 @@
     </row>
     <row r="257" spans="1:24" ht="19.5" customHeight="1">
       <c r="A257" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>350</v>

--- a/public/excel/warranty.xlsx
+++ b/public/excel/warranty.xlsx
@@ -4443,10 +4443,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X257"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M97" sqref="M97"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
